--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3273.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3273.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.053762284251122</v>
+        <v>1.743740081787109</v>
       </c>
       <c r="B1">
-        <v>1.580662811830612</v>
+        <v>3.725407838821411</v>
       </c>
       <c r="C1">
-        <v>3.412754132655234</v>
+        <v>2.02006983757019</v>
       </c>
       <c r="D1">
-        <v>4.584126307531149</v>
+        <v>1.411194801330566</v>
       </c>
       <c r="E1">
-        <v>1.360748046850455</v>
+        <v>1.204880237579346</v>
       </c>
     </row>
   </sheetData>
